--- a/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,42 +52,24 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairwoman Foxx.    I join you in welcoming our distinguished panel of witnesses.    The subject of this hearing is extremely sensitive. As ranking member of this subcommittee, I believe that we must raise the level of awareness in our communities and throughout our nation about the seriousness of campus sexual assault and its impact on our victims, both women and men, and their families. These impacts are far-reaching and include poor academic performance, stress, depression, and abuse of alcohol and drugs.    In addition to supporting the victim, we must also be sensitive to the rights of the accused. Institutions of higher education must have processes that ensure fairness in handling the allegations of campus sexual assaults and that campus investigations are consistent with our nation's longstanding principles of due process.    Whatever system is put in place, we must ensure that victims are not afraid to come forward. Unfortunately, many victims are reluctant to report sexual assaults because of shame, or fear of retaliation, or worries about lack of proof, uncertainty that what happened constitutes assault, or possibly because they lack information on where or how to report the assault, and fear of being treated poorly by the criminal justice system.    As a nation, we have made progress towards better understanding and addressing this serious challenge of campus sexual assault. For example, through the development of the White House Task Force to Protect Students from Sexual Assaults, the Department of Justice's Office of Violence Against Women developed a multiyear initiative to provide support to programs to prevent campus sexual assault and their recent online resource center for changing our campus culture.    In the year 2007, the U.S. Department of Justice also funded a groundbreaking study on campus sexual assault. The findings of that study were staggering. Let me give you some examples.    Among- women in college, nearly 20 percent will bevictims of attempted or actual sexual assault; as well, about 6 percent of undergraduate men. Most victims were violated in their first or second year at college. The majority, 75 to 80 percent, knew their attackers--often a friend, a classmate, acquaintance, or someone they dated.    The study also confirmed that the risk of campus sexual assault for undergraduate women increases greatly with the consumption of alcohol and/or drugs. It is clear, our concerted efforts are needed to deal with these serious issues.    In addition to these federal efforts, I am proud to report that my own home state of Texas is responding to calls of action. Starting this year, colleges and universities are required to inform students of campus sexual assault policies during freshmen orientation. Schools are also required to review and update those policies every 2 years.    Students returning to class at the University of Texas campuses this fall will also be participating in the nation's most comprehensive study on sexual assaults ever conducted in higher education. The Cultivating Learning and Safe Environments case study will be led by researchers at U.T. Austin School of Social Work and will include online questionnaires for students; surveys and focus groups of faculty, staff, and campus law enforcement; and a 4-year cohort study of entering freshmen to identify the psychological and economic impact of sexual violence. The U.T. system is spending $1.75 million dollars on this study.    So I applaud U.T.'s effort to address campus sexual assault and urge other colleges and universities throughout our country to join in the commitment to end sexual violence on their campuses.    In closing, let us renew our efforts to support victims of campus sexual assault. We can't wait for yet another high-profile incident to occur before we address this issue.    I look forward to hearing what recommendations our panel of witnesses may have to reduce sexual assault on our college campuses, and I thank you.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Scaduto</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Scaduto. Thank you, Chairwoman Foxx, and good morning.    And good morning, Ranking Member Hinojosa and Chairman Kline.    I thank you for the opportunity to be here today. As a higher education senior administrator with a long history of involvement in the issue of sexual misconduct on our nation's campuses, I am here today because we share the committee's commitment to educating our nation's students in safe and supportive environments.    American colleges and universities are happy to work in partnership with the government and others on finding solutions that will help bring about cultural change and put an end to this most serious problem. As we move forward, I want to take a few minutes to share with you some of the challenges higher education is facing in our efforts and to propose some ways in which our government and this subcommittee can further help us achieve greater success in preventing and responding to sexual violence.    As I make my comments this morning, I will use the term ``victim'' out of expediency and because it is referenced in the Campus SAVE Act, but without any personal preference as to terminology.    First, please recognize that the reports of sexual violence we receive on our campuses are not straightforward or easy to resolve. The sexual violence claims we see most frequently do not involve force or attacks by strangers, but happen between individuals who are acquainted, where one or both are intoxicated, and where the primary issue is whether consent to a sexual act was given. We are left to resolve word-on-word conflicts between two people whose memories may be impaired and where there are no witnesses.    Add to this the fact that reports may not be made for days, weeks, or months following an event, and I can hope you see the complexity of resolving such issues in a manner that the parties believe to be fair.    And while speaking of fairness, colleges and universities are committed to providing fair treatment to all of our students, including not only victims of sexual violence but also to those accused of sexual violence. The changes over the last 4 years have resulted in complexities and challenges in maintaining the necessary balance.    For example, on a small campus, removing an accused student from a class in order to keep the student away from an alleged victim before any determination of responsibility can be made may result in the accused student being forced out of a class where there are no other sections or being forced out of a class shortly before graduation. We are also often trying to navigate the complexities of VAWA, Clery, and Title IX laws, regulations, and guidance, as well as state laws simultaneously and without the confidence that we can do so to the satisfaction of all.    Employees' duties to report under various standards differ. What and how we are supposed to advise victims of their options for moving forward when they report a sexual assault are just two examples of those complexities.    Additionally, the current laws and guidance do not appear to recognize that college disciplinary proceedings are not equipped to replace law enforcement or judicial functions. The members of our campus communities who are expected to meet and discharge the new standards established for resolving sexual violence claims are faculty, staff, and, historically, students--not judges nor lawyers.    To support colleges' and universities' efforts to improve culture around this serious issue and to help us in our efforts to hold violators accountable through processes that are fair, equitable, and impartial, I recommend the following four points for your consideration: First, pause in considering legislation that adds additional requirements to those already complex network of federal and state laws, regulations, and OCR guidance until there has been an opportunity to evaluate whether the efforts to date are working. As a reminder, the VAWA regulations only went into effect July 1st of this year.    Second, consider creating a safe harbor for higher education that does not relieve us from accountability for failures to comply, but which provides us with certain presumptions of good faith when reviewing our conduct. For example, when we are applying fact-based tests established by various laws, such as in deciding whether to investigate or not over a victim's objection, if we miss the mark but are found to have acted in good faith in our efforts, provide us with protection from penalties or administrative action.    Third, if new requirements are considered at some point in the future, OCR should follow notice and comment requirements of the Administrative Procedures Act. The Title IX guidance put into place since 1991--since 2001 was done without notice or comment from parties outside the agency, depriving colleges and universities, victims and survivors, and other interested parties of the opportunity to provide input that may have been helpful in improving clarity and alignment with existing laws and regulations.    I will leave my fourth point for your reading.    Thank you for listening and considering my perspective as a higher education administrator.</t>
   </si>
   <si>
-    <t>Rue</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rue. Thank you, Chairwoman Foxx, Ranking Member Hinojosa, and honorable committee members, for the opportunity to testify about this critically important issue.    The higher education community takes the problem of campus sexual assault very seriously, and we are working diligently to prevent sexual assault and to manage systems fair to all students. These are not new issues for us. It has been a priority for decades because of our genuine care for the health, safety, and well-being of our students.    Currently, we must address sexual violence compliance responsibilities under a swirl of regulations. This one-size-fits-all can create resource challenges that impede our effort to prevent and respond to sexual assault. Added to these challenges now are state legislatures that are enacting statutes, creating a patchwork of conflicting regulations.    Prevention and education efforts are critical to reducing incidents of sexual violence. Many campuses employ online modules, allow new students to participate in prevention programming at orientation and belong--and beyond, online training programs to education faculty and staff to whom students might report about where to turn.    According to the CDC, bystander intervention training and social norms training are promising practices but have not yet been validated through rigorous design, so more grant support is needed to conduct evaluation research in this growing field.    At Wake Forest we use PREPARE peer educators to deliver highly interactive, situational programs to put incoming students' attitudes to the test and really get them to think. A highly engaging peer theater program reinforces those messages and is followed by an online curriculum that uses scenarios highly relevant to students. This program, Haven, will also give us benchmark attitudes that we can use to assess the effectiveness of our programs over time.    After students have time to navigate the social scene, they will participate in a program in their residence halls on bystander intervention training using the Step-Up model.    Campus climate surveys are another growing practice. These are used to assess students' perception of and experience with sexual violence, and these surveys are designed to provide an institution-specific picture that in turn enables leaders to coordinate with the campus community to strengthen prevention efforts.    One standardized survey imposed on all institutions would likely not accommodate the wide array of campus environments that range from 4-year residential, like my own, to community colleges and even primarily online universities. Each institution should have the autonomy to develop the best survey, given benchmarks to hit.    Although prevention strategies are in place, sexual violence will still occur on our campuses. Student affairs administrators are committed to being fair and balanced to all of our students engaged in the conduct process.    Critical to this process is the widely established practice of confidentiality for the victim and the accused, one of the primary reasons that a student will choose an on-campus practice over reporting to the police.    One of our most important points in trauma-informed work is to allow the survivor the right to choose the path to follow in the wake of an incident. Some may want to report to the campus, some may want to report to the police, or both. Some may only want support.    The institution really needs to respect that choice. To take the decision out of the victim's hand by mandating that a report of sexual violence to campus automatically is turned over to the police will create a chilling effect on the willingness of victims to come forward, exactly the opposite of what we want to happen.    The confidentiality of our conduct processes guaranteed under FERPA creates uncertainty about their fairness--we know that--most recently towards the respondent. But it is important to reiterate the campus processes are carefully structured to be fair and equitable to all parties.    In the recent Washington Post Kaiser Family Foundation poll, 84 percent of current and recent college students said they are very or somewhat confident in the school administration's ability to address complaints.    We are not a court of law. Ours is an educational process intended to arrive at a fair and equitable outcome for all parties. At the core of this distinction is our standard of scrutiny, preponderance of the evidence.    I think I speak for most colleges and universities in saying that we do not need more regulation; we need more consultation. Guidance from the Department of Education coming without notice often does not help us navigate these waters.    I strongly believe it is important to provide opportunities for public comment and discussion where the full complexity of the issues can be explored from those who know them firsthand.    In closing, I must express deep concern about the narrative from the media that colleges and universities care more about their institution's reputation than the rights and experiences of our students. Nothing could be further from the truth.    Instead, those of us who handle incidents of sexual violence are professionals who share an overwhelming commitment to strike the delicate balance in today's legislative environment to preserve the educational rights of students, to manage fair and equitable conduct systems, and above all, to prevent sexual violence.    Thank you, Chairwoman.</t>
   </si>
   <si>
-    <t>Maatz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Maatz. Good morning. On behalf of the more than 170,000 members--is that on? There we go.    Good morning.    On behalf of the more than 170,000 members, over 1,000 branches, and almost 900 colleges and university partners of the American Association of University Women, I thank you for inviting us to testify today. My remarks are informed by my 12 years with AAUW as well as my tenure as the executive director of Turning Point, a domestic violence program recognized for excellence by the Ohio Supreme Court; and also at Wittenberg University, where I was a hall director and ran a women's center that responded to incidents of sexual assault. I can personally attest to the fact that this is not a new problem.    When campus environments are hostile because of sexual harassment and violence, students can't learn. It is that simple and that devastating.    Schools have an important and necessary role to play in addressing this epidemic. Why? Because student rights to an education free of sex discrimination are on the line.    AAUW has long identified the need to end sexual harassment and violence on campuses. Our own research revealed that nearly two-thirds of college students experience sexual harassment.    Just this year, a national poll found one in five women said they had been sexually assaulted in college. This issue impacts both men and women and students from all walks of life at all types of schools.    Title IX and the Clery Act provide the very tools schools need to improve campus climates for everyone.    Passed in 1972, Title IX is a gender-neutral law that prohibits sex discrimination in federally funded education programs. The law requires schools to take steps to eliminate sexual harassment and violence, prevent their recurrence, and address their impacts on individual students and the entire campus. This includes evaluating current practices, publishing anti-discrimination policies, and implementing grievance procedures providing for a prompt and equitable resolution of complaints.    Schools must also provide accommodations to students, such as adjusting housing arrangements and class schedules and providing academic support--actions that schools are uniquely situated to provide.    All schools should have a Title IX coordinator to oversee these activities as well as monitor patterns and address systemic problems. It is important to note that these requirements are not new, but date back to the law's first regulations back in 1975. Since then, over the course of Republican and Democratic administrations, the Department of Education has continued to provide technical assistance and guidance that promotes compliance with the law.    Schools also follow a consumer protection law known as the Clery Act. It requires colleges and universities that participate in federal financial aid programs to disclose crime statistics and security information.    Originally passed in 1990, Congress updated the Clery Act in 2013 as part of a bipartisan reauthorization of the Violence Against Women Act. These updates require schools to report additional crime statistics on domestic violence, dating violence, and stalking, and provide ongoing sexual assault prevention and bystander intervention training campus-wide. This public report of a school's safety efforts is valuable to students and parents and provides insight to schools working to improve campus safety.    Title IX and the Clery Act are longstanding complementary laws that work together to ensure that students and schools have a clear course of action when sexual violence occurs. Appropriately, schools are not in the business of imposing criminal punishments. Those decisions are best left to authorities in charge of criminal investigation and prosecution if a survivor chooses to pursue that course.    The school's civil rights proceedings and any criminal investigation represent parallel yet equally necessary paths. Laws and legal precedence spell out clear requirements for schools to be prompt, fair, and impartial in all disciplinary proceedings, and Title IX echoes these due process requirements.    Similarly, the Clery Act requires that school processes be prompt, fair, and impartial, and that both parties receive timely notice regarding the outcomes of proceedings.    There are next steps that Congress can take to help assist schools and students in their efforts to end sexual harassment and violence. We know that the time immediately following an incident is especially critical for survivors.    They need access to a safe space, medical and counseling--medical care and counseling, and information about their rights and where they can seek additional support. Schools should also ensure an advisor is available to connect survivors to all of these resources.    The AAUW-supported Survivor Outreach and Support Campus Act, or the SOS Campus Act, would ensure schools take these critical steps.    In addition, climate surveys can help schools better to understand the dynamics behind reported and unreported incidents of sexual violence. Schools need information in order to effectively combat this epidemic. When done well, climate surveys provide transparency that is crucial for student safety and a useful tool to help schools fine-tune their response.    The AAUW-supported HALT Campus Sexual Violence Act would also require surveys at all schools.    Finally, we urge Congress to provide additional resources for the Department of Education to support Title IX coordinators and other stakeholders on relevant laws and best practices. There are schools that are working diligently to respond to incidents of sexual violence, and technical assistance can help them make real change.    Further, with more attention to sexual violence we have also seen an uptick in complaints, and an unprecedented number of schools are under investigation for Title IX compliance. The Office for Civil Rights needs additional funding to provide ongoing technical assistance for schools, as well as to hold bad actors accountable.    We all believe, I think, that a single incident of sexual violence is one too many. When it interferes with students' education it adds insult to injury.    But we have the tools to make real change, and AAUW looks forward to working with you as you reauthorize the Higher Education Act and consider this important topic.    Thank you.</t>
   </si>
   <si>
-    <t>Cohn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohn. Chairwoman Foxx, Ranking Member Hinojosa, honorable members of the subcommittee, and members of the committee at large, thank you for the introduction.    I am the legislative and policy director at the Foundation for Individual Rights in Education, or FIRE. We are a nonpartisan, nonprofit organization dedicated to defending student and faculty civil liberties on America's college campuses. I thank you for the opportunity to discuss this critical issue.    One of the core constitutional rights that FIRE defends is due process. Universities are both morally and legally obligated to respond to known instances of sexual assault in a manner reasonably calculated to prevent its recurrence. And for more than 50 years, courts repeatedly have held that the Constitution requires public institutions to provide meaningful due process protections to accused students.    FIRE believes that these twin obligations need not be in tension. Access to higher education is critical. The stakes are extremely high for everybody in campus disciplinary proceedings and it is essential that no student's education is curtailed unjustly.    While efforts to address campus sexual assault have focused on eliminating bias against complainants, far too little attention has been placed on preventing bias against the accused. And even more insufficient attention has been placed on addressing what I call the competency gap--the difference between what college administrators are equipped to do and what the Department of Education's Office for Civil Rights is demanding of them.    Campuses are ill-suited to adjudicate allegations of sexual assault. While colleges and universities have a role to play in tackling the issue, we must make sure that we are assigning them responsibilities they are capable of performing well.    Having defended campus due process for 15 years, FIRE is convinced that colleges are simply unequipped to serve as investigators and fact-finders in these challenging issues.    Rape is a crime. It should be treated as such. Using amateur systems is insulting to victims and disastrous to fundamental fairness.    Unsurprisingly, injustice for both victims and accused is commonplace.    Sound public policy requires adjudicating these cases in courts after professional investigations. Only courts have the power to take violent predators off the streets. After all, a student has been expelled but not jailed is free to commit rape again.    Complicating matters further, in the April 4, 2011 dear colleague letter, which OCR did not subject to public notice and comment as required under the Administrative Procedure Act, the agency mandated that institutions adjudicate sexual assault cases using the low preponderance of the evidence standard. OCR, while well-intentioned, has done more harm than good in this arena.    Since issuing the 2011 DCL, OCR has conducted over 130 Title IX investigations, several of which have resulted in settlement agreements. To the best of FIRE's knowledge, only one such investigation is looking into whether the disciplinary process is biased against the accused. The resulting perception of top-down federal bias against the accused is inescapable.    I would like to briefly address three bills currently pending before Congress: the Campus Accountability and Safety Act, CASA; the Safe Campus Act; and the Fair Campus Act. There are aspects of each that FIRE supports and there are provisions in each that give FIRE pause.    On the positive side, all three bills aim to increase the involvement of law enforcement. If our goal is to implement a serious response to a serious problem, involving professionals in the criminal justice system is necessary.    FIRE has multiple concerns about CASA, chief among them the fact that the bill provides no meaningful due process protections for the accused. None.    Conversely, the Safe Campus Act and Fair Campus Act both include important procedural safeguards that will benefit accused students and complainants alike. What is more, both the Safe Campus Act and the Fair Campus Act would repeal OCR's preponderance of the evidence mandate, provide the complainant and respondent crucial rights to active assistance of counsel, and require institutions to turn over inculpatory and exculpatory evidence to both sides.    To encourage more complainants to report allegations to the proper authorities, the Safe Campus Act prohibits institutions from taking action on complaints unless they choose to report the allegation to law enforcement. FIRE agrees that punitive measures should be waived if a complainant does not report the accusation to law enforcement for investigation. However, we strongly urge Congress to amend the language so that non-punitive measures and accommodations may still be made available regardless of the student's decision to report.    While colleges have proven incapable of competently determining the truth or falsity of felony accusations, they are well-equipped to secure counseling for alleged victims, provide academic and housing accommodations, secure necessary medical attention, and provide general guidance for students as they navigate the criminal justice system. Institutions should perform these functions regardless of the complainant's decision to report the incident. The bill should be amended to encourage them to do so.    I provide a more detailed analysis of the bills in my written testimony to the committee.    To sum up, there is no simple solution to the problem of sexual assault on campus, but lowering the bar of finding guilt and eliminating criminal due process protections--by doing that, we are creating a system that is impossible for colleges to administer fairly. Congress can help reverse this trend by taking all student interests into account. To accomplish that, Congress should include the best aspects of each pending bill in a comprehensive, balanced measure.    Thank you again for the opportunity to address you, and I look forward to answering your questions.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Madam Chair, and thanks for holding the hearing.    Thanks to all the witnesses for being here. Real experts and excellent testimony.    I picked up a theme, if I can use that term, when I was listening to both Ms. Scaduto and Dr. Rue, about complexity. Somebody, I think it was Dr. Rue, used the words ``swirl of regulations'' and a ``patchwork of regulations.'' And Ms. Scaduto, in her four recommendations, the one that is written and not--wasn't oral has--says ``harmonize standards, obligations, expectations under Title IX, VAWA, and Clery.''    It does seem to me that it is confusing because you have different statutes with different requirements, and I have great confidence that everybody in this room--sitting up here, sitting there, or sitting in the gallery, so to speak--wants to find a way to eliminate sexual assaults on campus, and should it occur, to make sure that we are holding perpetrators accountable and that we are providing support and protection for victims. But it does seem to be complex.    So I will just go to you, Ms. Scaduto, in part because I lived in the beautiful town of Carlisle for a while. It is a beautiful part of the country and of the state, and my son graduated from Carlisle High School. And so I have got this tie. I have just got to go to Carlisle. And it is Carlisle, not--anyway, it is a long story.    Are you concerned that the emphasis that is being placed, the focus that is being placed on complying with these different federal laws, regulations, and guidance is detracting from your ability to do what is in the best interest of your students?</t>
   </si>
   <si>
@@ -97,9 +79,6 @@
     <t xml:space="preserve">    Mr. Kline. Thank you very much.    I yield back.    Chairwoman Foxx. Thank you, Mr. Chairman.    I now recognize the ranking member, Mr. Scott.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Madam Chairman and Ranking Member Hinojosa, for calling this hearing on preventing and responding to sexual assault on college campuses.    This issue of campus safety is foremost in the minds of American families as they send their children away to college. Congress in 2009 declared September the National Campus Safety Awareness Month to help bring awareness to incidents of campus rape, mass shootings, and other forms of violence at educational institutions.    Twenty-five years ago, Congress passed the Clery Act to require institutions of higher learning to report campus crime statistics and to publish campus safety and security policies.    We know the issue of campus sexual assault is complex. Nevertheless, Title IX and the Clery Act require that once the school knows or reasonably should know of possible sexual violence it must take immediate and appropriate action to investigate or otherwise determine what occurred.    Unfortunately, campus sexual assault is usually addressed only after there is an alleged incident. We have to have meaningful procedures to hold accountable those who commit sexual assaults, but we also must do more to try to prevent them from occurring in the first place.    One strategy is to educate young people about healthy and safe relationships before entering college. The Teach Safe Relationships Act of 2015, introduced by Senator Tim Kaine of my home state of Virginia, would require that health education in public secondary schools include learning not just biology but also safe relationship behavior aimed at preventing sexual assault, domestic violence, and dating violence. Currently, federal law does not require health and sex education classes to include information regarding these relationships, which can prevent sexual assault.    There is also a study published in the June 2015 New England Journal of Medicine that found that college women who participated in an intensive program showing students how to recognize and resist sexual aggression reduced their chance of being raped by nearly 50 percent and attempted rape by 62 percent.    And we know that funding is also an issue, and funding is needed to implement educational programs and robust enforcement of all civil rights laws on campus. But the Department of Education's funding has decreased or been flat-lined over the years and the agency staffing level is the lowest it has been in 34 years despite having a record of nearly 10,000 civil rights complaints.    We can also do more to train campus public safety personnel, and support evidence-based research to strengthen college safety and security, and have a clearinghouse for dissemination of relevant campus public safety information. As an example, the National Center for Campus Public Safety in January 2015 conducted its first pilot program, offered in a course in Richmond, Virginia, to develop a trauma-informed sexual assault investigation and adjudication training for campus officials, including Title IX coordinators, advocates, legal counsel, and others.    Let me ask just a question to all of the witnesses. Some have alluded to some of the things we can do. Can the witnesses talk about--I know we are going to talk about what to do after the fact, but what kind of strategies can we do before the fact to actually reduce the incidence of campus sexual assault?</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you.    And thank you, for the panel. This is an incredibly complicated, difficult situation, and I think probably I am the only one sitting on the dais, except perhaps Dr. Heck, who has examined women for sexual assault and has testified in court. It is my lifelong job as an obstetrician/gynecologist. It is an incredibly difficult, complicated issue you all are dealing with.    And, Ms. Scaduto, you brought out a couple of points that hit me. Requirements we have from the state--if I examine a woman in the emergency room, I break state law if I don't report that if this is a student, and they are in conflict. And I think it puts a great pressure, I mean, on you to know if you are doing the right thing.    And I know that--and I am going to ask Mr. Cohn in a minute about this--we certainly want to protect the rights of each one, but I can tell you, I have dealt with patients over decades who have dealt with the consequences of sexual assault, and how you deal with it and--I mean, it changes--it is life-changing, and I mean forever life-changing. So how you deal with this is incredibly important, and I think the start you all made is that early on is education is absolutely the key to prevention.    And I know, Dr. Rue, you mentioned a couple of things that really intrigued me about how you prevent that. And the results in--I mean, the incidence is lowered greatly.    I don't know whether the incidence is greater now or just the reporting is greater. I have a feeling it is just the reporting is greater. I think the crime has been there all along, and I think it just has been grossly underreported.    So a couple things that I would like to know is--and I will start, Mr. Cohn, with you, is that you are absolutely right. To gather this information--I have done it meticulously before--is very difficult to do to protect the rights of everybody involved.    And I know, Ms. Maatz, you mentioned we are dealing with a civil rights issue and a criminal issue.    When does a school--when do you determine to turn this over to the police as a criminal--because it is a criminal act?</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you very much, Chairman Foxx, Ranking Member Hinojosa, for holding this important meeting.    My thanks, also, to the witnesses for your testimony, and special shout-out to Dr. Rue, from Wake Forest, which is partially in my district.    Campus sexual assault is a very serious issue. It affects entirely too many of our students. And to be clear, even one student is too many.    And so while I believe prevention through education is the best way to combat this growing problem, and I appreciate your speaking to that, we must still deal with the incidents that occur. Unfortunately, that is nearly impossible to do with all the differing ways in which institutions of higher education and law enforcement agencies handle sexual assault, and it is becoming more complicated with efforts to weaken Title IX.    Although North Carolina has--does not have a significant number of incidents currently open, the case open at the University of North Carolina Chapel Hill is particularly disturbing, and I am disappointed that there is a case that is open in my city of Greensboro, at the University of--at Guilford College.    I spent 40 years as a faculty member on the campus, Bennett College, a small women's college, primarily African-American women, in Greensboro, and I had ongoing concerns then and I still do. And there are many things that I could talk about surrounding sexual assault, but I want to hone in just for a moment on the effects of women of color.    According to the Centers for Disease Control, approximately 34 percent of multi-racial women, 27 percent of Alaskan Native American Indian women, and 22 percent of black women, and 14.6 percent of Hispanic women are survivors of sexual violence.    Ms. Scaduto and Dr. Rue, both Dickinson College and Wake Forest University are liberal arts institutions with pretty good resources, I think. Can each of you speak to your campus initiatives that address the need for cultural-specific prevention education for your minority students who might be dealing with the weight of other issues, like racial discrimination and economic disparities?</t>
   </si>
   <si>
@@ -208,9 +181,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you all for being here. I appreciate it. It is important for us to move forward on this as we work on higher ed reform.    I am in this situation. I had a daughter just graduate from college, but I have a son in college and before I came here was planning our college tour for my senior in high school, my little girl, and so when we leave--drop them off those days that crush us all; we leave them on campus and drive away.    We want to make sure that we are doing everything we can here and you are doing everything you can to make sure they are in a safe place. And so this information is going to be good for us.    And you look at, like, harmonizing requirements. I have learned--I was in state senate and now here--that when there is a requirement added or things done it is because something happened. And so we are reacting to something that happened and trying to prevent it in moving forward, and sometimes you get different bills that happen at different times and so you get different requirements.    And it should be an opportunity for us all to sit down during the higher ed reform and say, ``What is this report trying to accomplish and what is it trying to prevent, and how can we harmonize them and do them together?'' So that is important to do.    And, Ms. Scaduto, you talked in your written testimony, I believe, about some of the requirements that are established by the administration that don't necessarily--or it is difficult to work around--with nontraditional campuses, nontraditional students.    Would you care to elaborate on that and talk about how that is difficult too? We need a system to take care of that, but we want to see how the particular requirements make it difficult to comply.</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Madam Chair.    And thank you all for being here today. I appreciate that.    You know, we--before I--we dealt with a lot of campus issues around sexual violence--and I understand that we have been--campuses have been dealing with them for many years, but in terms of the visibility and the issue, it followed, to a certain extent, looking at sexual assault in the military. And we introduced a number of bills to try and get at this issue. Not so easy, and I have a few colleagues here from the Armed Services Committee that know and understand that.    One of the things that we have been talking about here, which was really critical, was the support for victims, men and women, to have access to--you mentioned a trauma-informed, but a highly professional individual who really can help victims navigate the system and provide the kind of options available to them that they have, whether it is, you know, reporting or non-reporting and what that means, actually, for them.    So I was just wondering, in terms of what you have seen in the Campus--the Safe Campus Act or other acts, are there some that you think actually would make it difficult for a student who chooses not to report to have those services--to receive those services? Are there bills that actually do tie the opportunity for victims to be informed by someone who really is highly trained in this area?    And quite frankly, I am not sure that we are there yet, in terms of the ``highly trained,'' but at least we know where we have to go with it.    Anybody want to--do you see that? Are we--</t>
   </si>
   <si>
@@ -277,9 +244,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Madam Chair.    I thank you all for being here and discussing this critically important topic.    Like my colleague, the gentlelady from California, I too was struck by what I thought was a lot of similarities between what you are experiencing on campuses and what we are experiencing within the military, which in and of itself is experiencing an epidemic of military sexual assault.    And, both Dr. Rue and Ms. Scaduto, in your comments you talked about things that are very similar: not straightforward or easy to resolve; do not involve force or attacks by strangers but between individuals who are acquainted; questions about effective consent; word-on-word conflicts may not be reported for days, weeks, months; and where the survivor has the right to choose a path within the wake of an incident, some reporting on campus or some to law enforcement, similar to the military restricted and unrestricted reports, where in a restricted report it is not referred to law enforcement but allows the victim to partake of the supportive services necessary to help them heal.    Question I have is, one, amongst anybody, has there been any review of what perhaps might be best practices developed within the military, realizing that we are not fully there yet either, but any best practices that might have been implemented in the military's response to this epidemic of sexual assault that may have application into what is being done on campuses?</t>
   </si>
   <si>
@@ -307,9 +271,6 @@
     <t>412613</t>
   </si>
   <si>
-    <t>Mark DeSaulnier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Madam Chair. And I do want to say, consistent with some of my colleagues, first of all, thank you for having the hearing. I think the hearing helps to draw attention to what is, I feel, is of real urgency, and I think everyone else does. I hear a great commonality, in terms of our desire to take effective action, and we are struggling what that is.    And also, as a parent who has dropped two kids off at college, the rite of passage that all of us have shared and the conveyance of that trust that we put in the institutions that we leave them at, and the expectation that these wonderful institutions will not just education them well but provide a culture where they feel safe and that they aren't put in the situation of either being a victim or a bystander.    So my analogy--and I appreciate the last two comments about the analogy to the military--a lot of this conversation reminds me of the early 1990s when I was in local government and the Clinton administration was bringing up domestic violence. And a lot of the conversations we have had remind me very specifically of the challenges. And even though everybody wanted to stop it, we have got to be careful of our approaches because we are all subject to subjective opinions about the relationships between men and women.    So, to Ms. Maatz, or maybe Dr. Rue or anyone else, CDC, when they look at the history of, for instance, domestic violence--and no analogy is perfect; I understand they are--but we know a lot now from the 20 years since 1994, when the Federal Government took a leadership role and passed the Violence Against Women Act that was just recently reauthorized. So not dissimilar, certainly.    And I remember talking to mandated reporters then, particularly educators in high school, who struggled with many of the same issues that you do, although because they were in the community I think they didn't have some of the--maybe the cultural or professional insular--not insular; that is a poor choice of words. Maybe you understand what I am getting at--the uniqueness of academia at a college campus.</t>
   </si>
   <si>
@@ -328,9 +289,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    My first question is, is there any data out there that we can access that would deal with a victim that has initially chosen not to report to law enforcement who later regrets that and decides they want to report it to law enforcement and they want the individual prosecuted? Is there any data on that?</t>
   </si>
   <si>
@@ -373,9 +331,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Well, thank you, Madam Chair.    I thank the distinguished ranking member, as well, for his leadership, and all of the witnesses for your presence here today on such an important topic.    I want to start my questioning with Mr. Cohn.    So it is my understanding you advocate for weakening the Title IX process in the context of investigating campus sexual assault. Is that accurate?</t>
   </si>
   <si>
@@ -430,9 +385,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Madam Chair.    And thank you all for coming and sharing a--back when it--course, my kids say I am old-fashioned--back in my day we didn't talk about things like this, other than--I will tell you this: Growing up, if I ever did anything to harm another--a woman, I had to answer to my father. And it was--even my little sister. She could hit me and I couldn't hit her back, and that is the way I was taught.    I have three grown daughters, and, course, full disclosure, my--I have a son and he attended Wake Forest University, and we were on the parents' council there. And I will tell you this: They showed a film there to the parents' council that they show every freshman at Wake Forest College about the problems with alcohol.    That was the scariest thing I have ever seen in my life. And I tell you, any freshman that saw that obviously was prepared to know the consequences at least of misbehavior.    Having three grown daughters, you know, I understand--I mean, you--when your kids go off to college, I mean, you just pray they will live through the experience, you know, because it is just--you know, I mean, they are free to do things that--and it--course, I went to college so I remember things I did I shouldn't have done.    But anyway, let me just say this, that would it be appropriate--like I said, I knew the consequences of my actions. Could colleges and universities--and I know it is very difficult to get in Wake Forest, for example. I mean, it is--my son thought it was a great honor to attend that university.    But, I mean, can you read the riot act to these young men and just say, ``You know, these are things that if you do you won't be here next semester''?    Dr. Rue, would you--I mean, is that--I mean, looks like to me that this is a--the universities should set the pace on this and say, ``There are just some things we are not going to put up with here--put up here--put up with here at Wake Forest.'' Can you comment on that?</t>
   </si>
   <si>
@@ -478,9 +430,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you.    Mr. Cohn, is the problem that you have with the campus judicial processes, is it the standard or is it what you consider to be a flawed implementation of the standards they use, or both?</t>
   </si>
   <si>
@@ -553,9 +502,6 @@
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Madam Chair. Thank you for holding this very important hearing.    Thank you, to the witnesses, for being here as well.    I am the father of a 12 and 11-year-old daughters and an 8-year-old son, and so they are not quite to college yet, but certainly an issue that means a lot to me. And we have several different college campuses on my--in my district, as well.    You know, to reiterate what many of my colleagues have said, when parents send their children off to college they deserve to know that they should be safe. And frankly, if even one student doesn't feel that way or isn't that way, that is one too many.    I wanted to give Mr. Cohn just a quick chance to respond to the comments. Just let me ask this question this way, and what can--so, given your testimony, what can colleges and universities do to improve their disciplinary processes in an effort to be more fair?</t>
   </si>
   <si>
@@ -577,9 +523,6 @@
     <t xml:space="preserve">    Mr. Messer. Thank you for your testimony.    Chairwoman Foxx. Thank you. Gentleman's time has expired.    Ms. Bonamici, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chair Foxx and Ranking Member Hinojosa. Thank you for having me join your subcommittee today.    This is a topic that has been of import in my state of Oregon as well as across the country. We have had a lot of conversations about it. And in fact, just last week I had a great discussion hosted by Portland State University with our Oregon institutions, primarily the Title IX coordinators.    There are a lot of common themes that we heard today not only emphasizing the importance of the issue but the regulatory overlap and sometimes conflict--I think you will find a lot of support among this committee for clarifying that; but also the resources needed to address these issues.    And I am glad we have had a lot of conversations this morning about prevention and the importance of educating students about healthy relationships, consent and what that means, healthy sexual encounters. And I am glad we are talking about that before college--before they get to college.    Now, there were some conversations about the Teach Safe Relationships Act. There is a House version, which I am proud to cosponsor, along with a couple of other members of this committee. I do invite the other committee members and other colleagues to take a look at that and join on because if we are preventing, that is the best approach.    So we know we can take stronger steps not only in prevention, we want to make sure that survivors of sexual assault have access to resources, services, and privacy on and off campus. And I want to emphasize that we really need to have policies that encourage not discourage survivors from reporting and seeking counseling and assistance.    Dr. Rue, you discuss the important role of confidential advisors, and that is something that we are seeing in more institutions.    Now, earlier this year I wrote a letter to the Department of Education about an apparent loophole in FERPA. In some circumstances, attorneys for an institution can access students' counseling records without a court order.    The Department of Education's recent draft guidance to address this issue is encouraging, and I look forward to working with the administration and advocates and colleagues to close that loophole and provide survivors with the support and assurance of privacy. We want them to be safe and we want them to feel safe, and if they have a sense that their records are not going to be kept confidential, that may discourage them from seeking the support that they need.    So my home state is working on this issue. Earlier this year our governor, Kate Brown, signed legislation making clear that conversations between alleged campus assault survivors and their advocates are confidential.    Oregon also passed a bill that requires schools to give students who report sexual assaults written notification about their rights, legal options, campus services, and the state and community resources. And I just want to give a shout-out to Brenda Tracy, a brave survivor of a gang rape on a campus several years ago, who is now a nurse and an advocate.    So these policies are important for students not only in Oregon but, you know, across the country, and I am really glad we are having these conversations today.    And I want to ask you, Ms. Maatz, we know that more institutions are starting to educate students about their rights under Title IX. Oregon State University, for example, is going to be opening a survivor advocacy center to provide confidential and accessible services; they are going to have a full-time advocate there.    So what can we do to expand services like that so more students know their rights? And what is the best way to let survivors know what resources are available to them on and off campus, and also let all students know that, not just survivors? They need to know what is there, and the best way to do that.</t>
   </si>
   <si>
@@ -599,9 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hinojosa. I ask unanimous consent that she be allowed and permitted to join the committee members for today and participate in this important hearing.    Chairwoman Foxx. Without objection, Congresswoman Speier is recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Speier</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Speier. Thank you very much for allowing me to participate today. I apologize for not being here for the entire hearing--excuse me. I had a funeral to attend.    But I want to applaud the committee for recognizing the gravity of this issue and the importance of putting a spotlight on the issue and coming up with some solutions to dealing with it. I am sure you have undertaken a complete review with the panelists that are with us today, who are--many of whom are experts, about the fact that this is, indeed, a very serious problem. Regardless of how you crunch the numbers, the incidence is widespread on college campuses and we need to take steps to address it.    Let me say at the outset that I have worked on this issue now for over 2 years. I have worked very closely with my colleague on the other side of the aisle, Pat Meehan, and we have introduced the HALT Act.    But in doing all of this we have spent time with the Office of Civil Rights, and I want to commend them. The OCR within the Department of Education in the last couple of years has done an outstanding job of creating greater accountability, frankly, because we have seen for a very long period of time that the Title IX coordinators on most college campuses weren't even available to people. They were oftentimes buried in Web sites.    That all is changing now due in large part to dear colleagues letters that have been sent out by OCR and others.    It is personal to me because I have a daughter who is in college, and every college that we visited before she chose the college that she is now at, the first question that was asked by every parent--the first question when we were at orientations was what was the safety of that college for their child.    And this is a bipartisan issue, Madam Chair. I can't tell you the number of Republican fathers and Republican mothers who have said to me, ``I am really upset that this issue hasn't been dealt with appropriately.'' And frankly, sometimes it is not until you are six degrees of separation that you appreciate how close it can come to you.    So climate surveys, which we have used very effectively in dealing with sexual assault in the military and has been used in the military for a long period of time, is something that we want to see incorporated by universities. It is a picture that helps them appreciate how significant the issue is.    The HALT Act will also provide for a number of other elements. You know, one of the things that Title IX does, it has a--it is a heavy hammer. If you aren't providing the kind of nondiscrimination in education you can lose all your federal funding, which means you lose all the grant money, you lose the option for student loans. And so it is a heavy hammer.    But it is, I think, important to create a system that provides some fiscal penalties short of that heavy hammer, and the HALT Act would do that.    It would also increase the violations--the penalties for violations to the Clery Act from $35,000 to $100,000 and create a private right of action under Clery for students whose institutions failed to inform them of safety risks and of their rights.    It provides more money for investigators in the Office of Civil Rights by about 5 million and--as an effort to decrease the backlog that exists right now with the Title IX complaints that have been filed.    Now, I spoke to a number of young women who had been assaulted at the University of California. I won't name the campus so they won't be drawn that closely under the microscope.    But in talking to these young women--and there is nothing like hearing the stories of these youngsters to appreciate how insidious this can be. And in many of those cases, the victims were never even interviewed.    That may be shocking to some of you, but that was commonplace. And how can you properly evaluate a case unless you interview both the perpetrator, or alleged perpetrator, and the victim as well?    The question as to whether or not colleges should be engaged in this at all--and, Ms. Scaduto, you had referenced that a few moments ago--you know, is probably a legitimate question. You all have codes of conduct, though, and under that code of conduct, if you violate that code of conduct you take actions to remove those individuals from the campus.    So you certainly have the wherewithal, and you certainly use that code of conduct in dismissing or suspending students who don't comply with the rules of the university. And I would suggest by being engaged in something that is clearly a crime, which rape is, that meets the standard of suspending or terminating a student. But I also appreciate that you, you know, have to weigh the various interests.    I do think that the Office of Civil Rights needs more resources. I do think that we should create a proactive responsibility that institutions, you know, plaster the notices of how you can seek Title IX coordinators in the bathrooms of every dorm and sorority and fraternity, and those simple things. The HALT Act goes beyond that.    And I see my time is expired, and I thank, again, the chair for the opportunity to participate.    Chairwoman Foxx. Thank you very much.    I want to thank our witnesses again for taking time to be here today.    I would like to recognize the ranking member for any closing comments.</t>
@@ -1009,11 +949,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1033,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1059,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1085,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1111,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1137,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1163,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1189,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1215,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1241,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1267,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1293,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1319,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1345,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1371,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1397,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1423,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1449,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1475,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1503,11 +1405,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1527,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1555,11 +1453,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1579,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1607,11 +1501,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1631,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1659,11 +1549,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1685,11 +1573,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1709,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1735,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1761,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1787,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1813,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1839,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1865,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1891,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1917,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1943,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1969,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1995,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2021,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2047,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2073,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2099,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2125,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2151,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2177,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2203,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2229,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2255,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2281,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2307,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2333,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2359,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2385,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2411,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2437,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2463,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2489,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2515,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2541,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2567,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2593,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2619,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2645,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2671,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2697,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2723,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2749,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2775,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2801,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2827,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2853,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2879,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2905,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2931,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2957,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2983,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3009,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3035,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3061,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3087,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3113,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3139,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3165,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3191,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3217,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3243,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
-      </c>
-      <c r="G88" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3269,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3295,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3321,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3347,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3373,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3399,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3425,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3451,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3477,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3503,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3529,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3555,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s">
+        <v>104</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>119</v>
-      </c>
-      <c r="H100" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3581,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3607,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3633,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3659,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3685,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
-      </c>
-      <c r="G105" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3711,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
-      </c>
-      <c r="G106" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3737,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3763,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
-      </c>
-      <c r="G108" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3789,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3815,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
-      </c>
-      <c r="G110" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3841,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3867,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
-      </c>
-      <c r="G112" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3893,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3919,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
-      </c>
-      <c r="G114" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3945,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3971,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3997,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4023,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4049,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4075,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4101,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4127,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4153,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4179,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
-      </c>
-      <c r="G124" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4205,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4231,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>153</v>
-      </c>
-      <c r="G126" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4257,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4283,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4309,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4335,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4361,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4387,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
-      </c>
-      <c r="G132" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4413,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4439,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
-      </c>
-      <c r="G134" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>154</v>
-      </c>
-      <c r="H134" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4465,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4491,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>153</v>
-      </c>
-      <c r="G136" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4517,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4543,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>153</v>
-      </c>
-      <c r="G138" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4569,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4595,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4621,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
-      </c>
-      <c r="G141" t="s">
-        <v>179</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4647,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4673,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
-      </c>
-      <c r="G143" t="s">
-        <v>179</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4699,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4725,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>178</v>
-      </c>
-      <c r="G145" t="s">
-        <v>179</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4751,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4777,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>178</v>
-      </c>
-      <c r="G147" t="s">
-        <v>179</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4803,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4829,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4855,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4881,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4907,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4933,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>187</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4961,11 +4597,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4985,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5013,11 +4645,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5039,11 +4669,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairwoman Foxx.    I join you in welcoming our distinguished panel of witnesses.    The subject of this hearing is extremely sensitive. As ranking member of this subcommittee, I believe that we must raise the level of awareness in our communities and throughout our nation about the seriousness of campus sexual assault and its impact on our victims, both women and men, and their families. These impacts are far-reaching and include poor academic performance, stress, depression, and abuse of alcohol and drugs.    In addition to supporting the victim, we must also be sensitive to the rights of the accused. Institutions of higher education must have processes that ensure fairness in handling the allegations of campus sexual assaults and that campus investigations are consistent with our nation's longstanding principles of due process.    Whatever system is put in place, we must ensure that victims are not afraid to come forward. Unfortunately, many victims are reluctant to report sexual assaults because of shame, or fear of retaliation, or worries about lack of proof, uncertainty that what happened constitutes assault, or possibly because they lack information on where or how to report the assault, and fear of being treated poorly by the criminal justice system.    As a nation, we have made progress towards better understanding and addressing this serious challenge of campus sexual assault. For example, through the development of the White House Task Force to Protect Students from Sexual Assaults, the Department of Justice's Office of Violence Against Women developed a multiyear initiative to provide support to programs to prevent campus sexual assault and their recent online resource center for changing our campus culture.    In the year 2007, the U.S. Department of Justice also funded a groundbreaking study on campus sexual assault. The findings of that study were staggering. Let me give you some examples.    Among- women in college, nearly 20 percent will bevictims of attempted or actual sexual assault; as well, about 6 percent of undergraduate men. Most victims were violated in their first or second year at college. The majority, 75 to 80 percent, knew their attackers--often a friend, a classmate, acquaintance, or someone they dated.    The study also confirmed that the risk of campus sexual assault for undergraduate women increases greatly with the consumption of alcohol and/or drugs. It is clear, our concerted efforts are needed to deal with these serious issues.    In addition to these federal efforts, I am proud to report that my own home state of Texas is responding to calls of action. Starting this year, colleges and universities are required to inform students of campus sexual assault policies during freshmen orientation. Schools are also required to review and update those policies every 2 years.    Students returning to class at the University of Texas campuses this fall will also be participating in the nation's most comprehensive study on sexual assaults ever conducted in higher education. The Cultivating Learning and Safe Environments case study will be led by researchers at U.T. Austin School of Social Work and will include online questionnaires for students; surveys and focus groups of faculty, staff, and campus law enforcement; and a 4-year cohort study of entering freshmen to identify the psychological and economic impact of sexual violence. The U.T. system is spending $1.75 million dollars on this study.    So I applaud U.T.'s effort to address campus sexual assault and urge other colleges and universities throughout our country to join in the commitment to end sexual violence on their campuses.    In closing, let us renew our efforts to support victims of campus sexual assault. We can't wait for yet another high-profile incident to occur before we address this issue.    I look forward to hearing what recommendations our panel of witnesses may have to reduce sexual assault on our college campuses, and I thank you.    And with that, Madam Chair, I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Scaduto</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Scaduto. Thank you, Chairwoman Foxx, and good morning.    And good morning, Ranking Member Hinojosa and Chairman Kline.    I thank you for the opportunity to be here today. As a higher education senior administrator with a long history of involvement in the issue of sexual misconduct on our nation's campuses, I am here today because we share the committee's commitment to educating our nation's students in safe and supportive environments.    American colleges and universities are happy to work in partnership with the government and others on finding solutions that will help bring about cultural change and put an end to this most serious problem. As we move forward, I want to take a few minutes to share with you some of the challenges higher education is facing in our efforts and to propose some ways in which our government and this subcommittee can further help us achieve greater success in preventing and responding to sexual violence.    As I make my comments this morning, I will use the term ``victim'' out of expediency and because it is referenced in the Campus SAVE Act, but without any personal preference as to terminology.    First, please recognize that the reports of sexual violence we receive on our campuses are not straightforward or easy to resolve. The sexual violence claims we see most frequently do not involve force or attacks by strangers, but happen between individuals who are acquainted, where one or both are intoxicated, and where the primary issue is whether consent to a sexual act was given. We are left to resolve word-on-word conflicts between two people whose memories may be impaired and where there are no witnesses.    Add to this the fact that reports may not be made for days, weeks, or months following an event, and I can hope you see the complexity of resolving such issues in a manner that the parties believe to be fair.    And while speaking of fairness, colleges and universities are committed to providing fair treatment to all of our students, including not only victims of sexual violence but also to those accused of sexual violence. The changes over the last 4 years have resulted in complexities and challenges in maintaining the necessary balance.    For example, on a small campus, removing an accused student from a class in order to keep the student away from an alleged victim before any determination of responsibility can be made may result in the accused student being forced out of a class where there are no other sections or being forced out of a class shortly before graduation. We are also often trying to navigate the complexities of VAWA, Clery, and Title IX laws, regulations, and guidance, as well as state laws simultaneously and without the confidence that we can do so to the satisfaction of all.    Employees' duties to report under various standards differ. What and how we are supposed to advise victims of their options for moving forward when they report a sexual assault are just two examples of those complexities.    Additionally, the current laws and guidance do not appear to recognize that college disciplinary proceedings are not equipped to replace law enforcement or judicial functions. The members of our campus communities who are expected to meet and discharge the new standards established for resolving sexual violence claims are faculty, staff, and, historically, students--not judges nor lawyers.    To support colleges' and universities' efforts to improve culture around this serious issue and to help us in our efforts to hold violators accountable through processes that are fair, equitable, and impartial, I recommend the following four points for your consideration: First, pause in considering legislation that adds additional requirements to those already complex network of federal and state laws, regulations, and OCR guidance until there has been an opportunity to evaluate whether the efforts to date are working. As a reminder, the VAWA regulations only went into effect July 1st of this year.    Second, consider creating a safe harbor for higher education that does not relieve us from accountability for failures to comply, but which provides us with certain presumptions of good faith when reviewing our conduct. For example, when we are applying fact-based tests established by various laws, such as in deciding whether to investigate or not over a victim's objection, if we miss the mark but are found to have acted in good faith in our efforts, provide us with protection from penalties or administrative action.    Third, if new requirements are considered at some point in the future, OCR should follow notice and comment requirements of the Administrative Procedures Act. The Title IX guidance put into place since 1991--since 2001 was done without notice or comment from parties outside the agency, depriving colleges and universities, victims and survivors, and other interested parties of the opportunity to provide input that may have been helpful in improving clarity and alignment with existing laws and regulations.    I will leave my fourth point for your reading.    Thank you for listening and considering my perspective as a higher education administrator.</t>
   </si>
   <si>
+    <t>Rue</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rue. Thank you, Chairwoman Foxx, Ranking Member Hinojosa, and honorable committee members, for the opportunity to testify about this critically important issue.    The higher education community takes the problem of campus sexual assault very seriously, and we are working diligently to prevent sexual assault and to manage systems fair to all students. These are not new issues for us. It has been a priority for decades because of our genuine care for the health, safety, and well-being of our students.    Currently, we must address sexual violence compliance responsibilities under a swirl of regulations. This one-size-fits-all can create resource challenges that impede our effort to prevent and respond to sexual assault. Added to these challenges now are state legislatures that are enacting statutes, creating a patchwork of conflicting regulations.    Prevention and education efforts are critical to reducing incidents of sexual violence. Many campuses employ online modules, allow new students to participate in prevention programming at orientation and belong--and beyond, online training programs to education faculty and staff to whom students might report about where to turn.    According to the CDC, bystander intervention training and social norms training are promising practices but have not yet been validated through rigorous design, so more grant support is needed to conduct evaluation research in this growing field.    At Wake Forest we use PREPARE peer educators to deliver highly interactive, situational programs to put incoming students' attitudes to the test and really get them to think. A highly engaging peer theater program reinforces those messages and is followed by an online curriculum that uses scenarios highly relevant to students. This program, Haven, will also give us benchmark attitudes that we can use to assess the effectiveness of our programs over time.    After students have time to navigate the social scene, they will participate in a program in their residence halls on bystander intervention training using the Step-Up model.    Campus climate surveys are another growing practice. These are used to assess students' perception of and experience with sexual violence, and these surveys are designed to provide an institution-specific picture that in turn enables leaders to coordinate with the campus community to strengthen prevention efforts.    One standardized survey imposed on all institutions would likely not accommodate the wide array of campus environments that range from 4-year residential, like my own, to community colleges and even primarily online universities. Each institution should have the autonomy to develop the best survey, given benchmarks to hit.    Although prevention strategies are in place, sexual violence will still occur on our campuses. Student affairs administrators are committed to being fair and balanced to all of our students engaged in the conduct process.    Critical to this process is the widely established practice of confidentiality for the victim and the accused, one of the primary reasons that a student will choose an on-campus practice over reporting to the police.    One of our most important points in trauma-informed work is to allow the survivor the right to choose the path to follow in the wake of an incident. Some may want to report to the campus, some may want to report to the police, or both. Some may only want support.    The institution really needs to respect that choice. To take the decision out of the victim's hand by mandating that a report of sexual violence to campus automatically is turned over to the police will create a chilling effect on the willingness of victims to come forward, exactly the opposite of what we want to happen.    The confidentiality of our conduct processes guaranteed under FERPA creates uncertainty about their fairness--we know that--most recently towards the respondent. But it is important to reiterate the campus processes are carefully structured to be fair and equitable to all parties.    In the recent Washington Post Kaiser Family Foundation poll, 84 percent of current and recent college students said they are very or somewhat confident in the school administration's ability to address complaints.    We are not a court of law. Ours is an educational process intended to arrive at a fair and equitable outcome for all parties. At the core of this distinction is our standard of scrutiny, preponderance of the evidence.    I think I speak for most colleges and universities in saying that we do not need more regulation; we need more consultation. Guidance from the Department of Education coming without notice often does not help us navigate these waters.    I strongly believe it is important to provide opportunities for public comment and discussion where the full complexity of the issues can be explored from those who know them firsthand.    In closing, I must express deep concern about the narrative from the media that colleges and universities care more about their institution's reputation than the rights and experiences of our students. Nothing could be further from the truth.    Instead, those of us who handle incidents of sexual violence are professionals who share an overwhelming commitment to strike the delicate balance in today's legislative environment to preserve the educational rights of students, to manage fair and equitable conduct systems, and above all, to prevent sexual violence.    Thank you, Chairwoman.</t>
   </si>
   <si>
+    <t>Maatz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Maatz. Good morning. On behalf of the more than 170,000 members--is that on? There we go.    Good morning.    On behalf of the more than 170,000 members, over 1,000 branches, and almost 900 colleges and university partners of the American Association of University Women, I thank you for inviting us to testify today. My remarks are informed by my 12 years with AAUW as well as my tenure as the executive director of Turning Point, a domestic violence program recognized for excellence by the Ohio Supreme Court; and also at Wittenberg University, where I was a hall director and ran a women's center that responded to incidents of sexual assault. I can personally attest to the fact that this is not a new problem.    When campus environments are hostile because of sexual harassment and violence, students can't learn. It is that simple and that devastating.    Schools have an important and necessary role to play in addressing this epidemic. Why? Because student rights to an education free of sex discrimination are on the line.    AAUW has long identified the need to end sexual harassment and violence on campuses. Our own research revealed that nearly two-thirds of college students experience sexual harassment.    Just this year, a national poll found one in five women said they had been sexually assaulted in college. This issue impacts both men and women and students from all walks of life at all types of schools.    Title IX and the Clery Act provide the very tools schools need to improve campus climates for everyone.    Passed in 1972, Title IX is a gender-neutral law that prohibits sex discrimination in federally funded education programs. The law requires schools to take steps to eliminate sexual harassment and violence, prevent their recurrence, and address their impacts on individual students and the entire campus. This includes evaluating current practices, publishing anti-discrimination policies, and implementing grievance procedures providing for a prompt and equitable resolution of complaints.    Schools must also provide accommodations to students, such as adjusting housing arrangements and class schedules and providing academic support--actions that schools are uniquely situated to provide.    All schools should have a Title IX coordinator to oversee these activities as well as monitor patterns and address systemic problems. It is important to note that these requirements are not new, but date back to the law's first regulations back in 1975. Since then, over the course of Republican and Democratic administrations, the Department of Education has continued to provide technical assistance and guidance that promotes compliance with the law.    Schools also follow a consumer protection law known as the Clery Act. It requires colleges and universities that participate in federal financial aid programs to disclose crime statistics and security information.    Originally passed in 1990, Congress updated the Clery Act in 2013 as part of a bipartisan reauthorization of the Violence Against Women Act. These updates require schools to report additional crime statistics on domestic violence, dating violence, and stalking, and provide ongoing sexual assault prevention and bystander intervention training campus-wide. This public report of a school's safety efforts is valuable to students and parents and provides insight to schools working to improve campus safety.    Title IX and the Clery Act are longstanding complementary laws that work together to ensure that students and schools have a clear course of action when sexual violence occurs. Appropriately, schools are not in the business of imposing criminal punishments. Those decisions are best left to authorities in charge of criminal investigation and prosecution if a survivor chooses to pursue that course.    The school's civil rights proceedings and any criminal investigation represent parallel yet equally necessary paths. Laws and legal precedence spell out clear requirements for schools to be prompt, fair, and impartial in all disciplinary proceedings, and Title IX echoes these due process requirements.    Similarly, the Clery Act requires that school processes be prompt, fair, and impartial, and that both parties receive timely notice regarding the outcomes of proceedings.    There are next steps that Congress can take to help assist schools and students in their efforts to end sexual harassment and violence. We know that the time immediately following an incident is especially critical for survivors.    They need access to a safe space, medical and counseling--medical care and counseling, and information about their rights and where they can seek additional support. Schools should also ensure an advisor is available to connect survivors to all of these resources.    The AAUW-supported Survivor Outreach and Support Campus Act, or the SOS Campus Act, would ensure schools take these critical steps.    In addition, climate surveys can help schools better to understand the dynamics behind reported and unreported incidents of sexual violence. Schools need information in order to effectively combat this epidemic. When done well, climate surveys provide transparency that is crucial for student safety and a useful tool to help schools fine-tune their response.    The AAUW-supported HALT Campus Sexual Violence Act would also require surveys at all schools.    Finally, we urge Congress to provide additional resources for the Department of Education to support Title IX coordinators and other stakeholders on relevant laws and best practices. There are schools that are working diligently to respond to incidents of sexual violence, and technical assistance can help them make real change.    Further, with more attention to sexual violence we have also seen an uptick in complaints, and an unprecedented number of schools are under investigation for Title IX compliance. The Office for Civil Rights needs additional funding to provide ongoing technical assistance for schools, as well as to hold bad actors accountable.    We all believe, I think, that a single incident of sexual violence is one too many. When it interferes with students' education it adds insult to injury.    But we have the tools to make real change, and AAUW looks forward to working with you as you reauthorize the Higher Education Act and consider this important topic.    Thank you.</t>
   </si>
   <si>
+    <t>Cohn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohn. Chairwoman Foxx, Ranking Member Hinojosa, honorable members of the subcommittee, and members of the committee at large, thank you for the introduction.    I am the legislative and policy director at the Foundation for Individual Rights in Education, or FIRE. We are a nonpartisan, nonprofit organization dedicated to defending student and faculty civil liberties on America's college campuses. I thank you for the opportunity to discuss this critical issue.    One of the core constitutional rights that FIRE defends is due process. Universities are both morally and legally obligated to respond to known instances of sexual assault in a manner reasonably calculated to prevent its recurrence. And for more than 50 years, courts repeatedly have held that the Constitution requires public institutions to provide meaningful due process protections to accused students.    FIRE believes that these twin obligations need not be in tension. Access to higher education is critical. The stakes are extremely high for everybody in campus disciplinary proceedings and it is essential that no student's education is curtailed unjustly.    While efforts to address campus sexual assault have focused on eliminating bias against complainants, far too little attention has been placed on preventing bias against the accused. And even more insufficient attention has been placed on addressing what I call the competency gap--the difference between what college administrators are equipped to do and what the Department of Education's Office for Civil Rights is demanding of them.    Campuses are ill-suited to adjudicate allegations of sexual assault. While colleges and universities have a role to play in tackling the issue, we must make sure that we are assigning them responsibilities they are capable of performing well.    Having defended campus due process for 15 years, FIRE is convinced that colleges are simply unequipped to serve as investigators and fact-finders in these challenging issues.    Rape is a crime. It should be treated as such. Using amateur systems is insulting to victims and disastrous to fundamental fairness.    Unsurprisingly, injustice for both victims and accused is commonplace.    Sound public policy requires adjudicating these cases in courts after professional investigations. Only courts have the power to take violent predators off the streets. After all, a student has been expelled but not jailed is free to commit rape again.    Complicating matters further, in the April 4, 2011 dear colleague letter, which OCR did not subject to public notice and comment as required under the Administrative Procedure Act, the agency mandated that institutions adjudicate sexual assault cases using the low preponderance of the evidence standard. OCR, while well-intentioned, has done more harm than good in this arena.    Since issuing the 2011 DCL, OCR has conducted over 130 Title IX investigations, several of which have resulted in settlement agreements. To the best of FIRE's knowledge, only one such investigation is looking into whether the disciplinary process is biased against the accused. The resulting perception of top-down federal bias against the accused is inescapable.    I would like to briefly address three bills currently pending before Congress: the Campus Accountability and Safety Act, CASA; the Safe Campus Act; and the Fair Campus Act. There are aspects of each that FIRE supports and there are provisions in each that give FIRE pause.    On the positive side, all three bills aim to increase the involvement of law enforcement. If our goal is to implement a serious response to a serious problem, involving professionals in the criminal justice system is necessary.    FIRE has multiple concerns about CASA, chief among them the fact that the bill provides no meaningful due process protections for the accused. None.    Conversely, the Safe Campus Act and Fair Campus Act both include important procedural safeguards that will benefit accused students and complainants alike. What is more, both the Safe Campus Act and the Fair Campus Act would repeal OCR's preponderance of the evidence mandate, provide the complainant and respondent crucial rights to active assistance of counsel, and require institutions to turn over inculpatory and exculpatory evidence to both sides.    To encourage more complainants to report allegations to the proper authorities, the Safe Campus Act prohibits institutions from taking action on complaints unless they choose to report the allegation to law enforcement. FIRE agrees that punitive measures should be waived if a complainant does not report the accusation to law enforcement for investigation. However, we strongly urge Congress to amend the language so that non-punitive measures and accommodations may still be made available regardless of the student's decision to report.    While colleges have proven incapable of competently determining the truth or falsity of felony accusations, they are well-equipped to secure counseling for alleged victims, provide academic and housing accommodations, secure necessary medical attention, and provide general guidance for students as they navigate the criminal justice system. Institutions should perform these functions regardless of the complainant's decision to report the incident. The bill should be amended to encourage them to do so.    I provide a more detailed analysis of the bills in my written testimony to the committee.    To sum up, there is no simple solution to the problem of sexual assault on campus, but lowering the bar of finding guilt and eliminating criminal due process protections--by doing that, we are creating a system that is impossible for colleges to administer fairly. Congress can help reverse this trend by taking all student interests into account. To accomplish that, Congress should include the best aspects of each pending bill in a comprehensive, balanced measure.    Thank you again for the opportunity to address you, and I look forward to answering your questions.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Madam Chair, and thanks for holding the hearing.    Thanks to all the witnesses for being here. Real experts and excellent testimony.    I picked up a theme, if I can use that term, when I was listening to both Ms. Scaduto and Dr. Rue, about complexity. Somebody, I think it was Dr. Rue, used the words ``swirl of regulations'' and a ``patchwork of regulations.'' And Ms. Scaduto, in her four recommendations, the one that is written and not--wasn't oral has--says ``harmonize standards, obligations, expectations under Title IX, VAWA, and Clery.''    It does seem to me that it is confusing because you have different statutes with different requirements, and I have great confidence that everybody in this room--sitting up here, sitting there, or sitting in the gallery, so to speak--wants to find a way to eliminate sexual assaults on campus, and should it occur, to make sure that we are holding perpetrators accountable and that we are providing support and protection for victims. But it does seem to be complex.    So I will just go to you, Ms. Scaduto, in part because I lived in the beautiful town of Carlisle for a while. It is a beautiful part of the country and of the state, and my son graduated from Carlisle High School. And so I have got this tie. I have just got to go to Carlisle. And it is Carlisle, not--anyway, it is a long story.    Are you concerned that the emphasis that is being placed, the focus that is being placed on complying with these different federal laws, regulations, and guidance is detracting from your ability to do what is in the best interest of your students?</t>
   </si>
   <si>
@@ -79,6 +103,9 @@
     <t xml:space="preserve">    Mr. Kline. Thank you very much.    I yield back.    Chairwoman Foxx. Thank you, Mr. Chairman.    I now recognize the ranking member, Mr. Scott.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Madam Chairman and Ranking Member Hinojosa, for calling this hearing on preventing and responding to sexual assault on college campuses.    This issue of campus safety is foremost in the minds of American families as they send their children away to college. Congress in 2009 declared September the National Campus Safety Awareness Month to help bring awareness to incidents of campus rape, mass shootings, and other forms of violence at educational institutions.    Twenty-five years ago, Congress passed the Clery Act to require institutions of higher learning to report campus crime statistics and to publish campus safety and security policies.    We know the issue of campus sexual assault is complex. Nevertheless, Title IX and the Clery Act require that once the school knows or reasonably should know of possible sexual violence it must take immediate and appropriate action to investigate or otherwise determine what occurred.    Unfortunately, campus sexual assault is usually addressed only after there is an alleged incident. We have to have meaningful procedures to hold accountable those who commit sexual assaults, but we also must do more to try to prevent them from occurring in the first place.    One strategy is to educate young people about healthy and safe relationships before entering college. The Teach Safe Relationships Act of 2015, introduced by Senator Tim Kaine of my home state of Virginia, would require that health education in public secondary schools include learning not just biology but also safe relationship behavior aimed at preventing sexual assault, domestic violence, and dating violence. Currently, federal law does not require health and sex education classes to include information regarding these relationships, which can prevent sexual assault.    There is also a study published in the June 2015 New England Journal of Medicine that found that college women who participated in an intensive program showing students how to recognize and resist sexual aggression reduced their chance of being raped by nearly 50 percent and attempted rape by 62 percent.    And we know that funding is also an issue, and funding is needed to implement educational programs and robust enforcement of all civil rights laws on campus. But the Department of Education's funding has decreased or been flat-lined over the years and the agency staffing level is the lowest it has been in 34 years despite having a record of nearly 10,000 civil rights complaints.    We can also do more to train campus public safety personnel, and support evidence-based research to strengthen college safety and security, and have a clearinghouse for dissemination of relevant campus public safety information. As an example, the National Center for Campus Public Safety in January 2015 conducted its first pilot program, offered in a course in Richmond, Virginia, to develop a trauma-informed sexual assault investigation and adjudication training for campus officials, including Title IX coordinators, advocates, legal counsel, and others.    Let me ask just a question to all of the witnesses. Some have alluded to some of the things we can do. Can the witnesses talk about--I know we are going to talk about what to do after the fact, but what kind of strategies can we do before the fact to actually reduce the incidence of campus sexual assault?</t>
   </si>
   <si>
@@ -139,6 +166,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you.    And thank you, for the panel. This is an incredibly complicated, difficult situation, and I think probably I am the only one sitting on the dais, except perhaps Dr. Heck, who has examined women for sexual assault and has testified in court. It is my lifelong job as an obstetrician/gynecologist. It is an incredibly difficult, complicated issue you all are dealing with.    And, Ms. Scaduto, you brought out a couple of points that hit me. Requirements we have from the state--if I examine a woman in the emergency room, I break state law if I don't report that if this is a student, and they are in conflict. And I think it puts a great pressure, I mean, on you to know if you are doing the right thing.    And I know that--and I am going to ask Mr. Cohn in a minute about this--we certainly want to protect the rights of each one, but I can tell you, I have dealt with patients over decades who have dealt with the consequences of sexual assault, and how you deal with it and--I mean, it changes--it is life-changing, and I mean forever life-changing. So how you deal with this is incredibly important, and I think the start you all made is that early on is education is absolutely the key to prevention.    And I know, Dr. Rue, you mentioned a couple of things that really intrigued me about how you prevent that. And the results in--I mean, the incidence is lowered greatly.    I don't know whether the incidence is greater now or just the reporting is greater. I have a feeling it is just the reporting is greater. I think the crime has been there all along, and I think it just has been grossly underreported.    So a couple things that I would like to know is--and I will start, Mr. Cohn, with you, is that you are absolutely right. To gather this information--I have done it meticulously before--is very difficult to do to protect the rights of everybody involved.    And I know, Ms. Maatz, you mentioned we are dealing with a civil rights issue and a criminal issue.    When does a school--when do you determine to turn this over to the police as a criminal--because it is a criminal act?</t>
   </si>
   <si>
@@ -160,6 +193,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you very much, Chairman Foxx, Ranking Member Hinojosa, for holding this important meeting.    My thanks, also, to the witnesses for your testimony, and special shout-out to Dr. Rue, from Wake Forest, which is partially in my district.    Campus sexual assault is a very serious issue. It affects entirely too many of our students. And to be clear, even one student is too many.    And so while I believe prevention through education is the best way to combat this growing problem, and I appreciate your speaking to that, we must still deal with the incidents that occur. Unfortunately, that is nearly impossible to do with all the differing ways in which institutions of higher education and law enforcement agencies handle sexual assault, and it is becoming more complicated with efforts to weaken Title IX.    Although North Carolina has--does not have a significant number of incidents currently open, the case open at the University of North Carolina Chapel Hill is particularly disturbing, and I am disappointed that there is a case that is open in my city of Greensboro, at the University of--at Guilford College.    I spent 40 years as a faculty member on the campus, Bennett College, a small women's college, primarily African-American women, in Greensboro, and I had ongoing concerns then and I still do. And there are many things that I could talk about surrounding sexual assault, but I want to hone in just for a moment on the effects of women of color.    According to the Centers for Disease Control, approximately 34 percent of multi-racial women, 27 percent of Alaskan Native American Indian women, and 22 percent of black women, and 14.6 percent of Hispanic women are survivors of sexual violence.    Ms. Scaduto and Dr. Rue, both Dickinson College and Wake Forest University are liberal arts institutions with pretty good resources, I think. Can each of you speak to your campus initiatives that address the need for cultural-specific prevention education for your minority students who might be dealing with the weight of other issues, like racial discrimination and economic disparities?</t>
   </si>
   <si>
@@ -181,6 +220,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you all for being here. I appreciate it. It is important for us to move forward on this as we work on higher ed reform.    I am in this situation. I had a daughter just graduate from college, but I have a son in college and before I came here was planning our college tour for my senior in high school, my little girl, and so when we leave--drop them off those days that crush us all; we leave them on campus and drive away.    We want to make sure that we are doing everything we can here and you are doing everything you can to make sure they are in a safe place. And so this information is going to be good for us.    And you look at, like, harmonizing requirements. I have learned--I was in state senate and now here--that when there is a requirement added or things done it is because something happened. And so we are reacting to something that happened and trying to prevent it in moving forward, and sometimes you get different bills that happen at different times and so you get different requirements.    And it should be an opportunity for us all to sit down during the higher ed reform and say, ``What is this report trying to accomplish and what is it trying to prevent, and how can we harmonize them and do them together?'' So that is important to do.    And, Ms. Scaduto, you talked in your written testimony, I believe, about some of the requirements that are established by the administration that don't necessarily--or it is difficult to work around--with nontraditional campuses, nontraditional students.    Would you care to elaborate on that and talk about how that is difficult too? We need a system to take care of that, but we want to see how the particular requirements make it difficult to comply.</t>
   </si>
   <si>
@@ -199,6 +244,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Madam Chair.    And thank you all for being here today. I appreciate that.    You know, we--before I--we dealt with a lot of campus issues around sexual violence--and I understand that we have been--campuses have been dealing with them for many years, but in terms of the visibility and the issue, it followed, to a certain extent, looking at sexual assault in the military. And we introduced a number of bills to try and get at this issue. Not so easy, and I have a few colleagues here from the Armed Services Committee that know and understand that.    One of the things that we have been talking about here, which was really critical, was the support for victims, men and women, to have access to--you mentioned a trauma-informed, but a highly professional individual who really can help victims navigate the system and provide the kind of options available to them that they have, whether it is, you know, reporting or non-reporting and what that means, actually, for them.    So I was just wondering, in terms of what you have seen in the Campus--the Safe Campus Act or other acts, are there some that you think actually would make it difficult for a student who chooses not to report to have those services--to receive those services? Are there bills that actually do tie the opportunity for victims to be informed by someone who really is highly trained in this area?    And quite frankly, I am not sure that we are there yet, in terms of the ``highly trained,'' but at least we know where we have to go with it.    Anybody want to--do you see that? Are we--</t>
   </si>
   <si>
@@ -244,6 +295,12 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Madam Chair.    I thank you all for being here and discussing this critically important topic.    Like my colleague, the gentlelady from California, I too was struck by what I thought was a lot of similarities between what you are experiencing on campuses and what we are experiencing within the military, which in and of itself is experiencing an epidemic of military sexual assault.    And, both Dr. Rue and Ms. Scaduto, in your comments you talked about things that are very similar: not straightforward or easy to resolve; do not involve force or attacks by strangers but between individuals who are acquainted; questions about effective consent; word-on-word conflicts may not be reported for days, weeks, months; and where the survivor has the right to choose a path within the wake of an incident, some reporting on campus or some to law enforcement, similar to the military restricted and unrestricted reports, where in a restricted report it is not referred to law enforcement but allows the victim to partake of the supportive services necessary to help them heal.    Question I have is, one, amongst anybody, has there been any review of what perhaps might be best practices developed within the military, realizing that we are not fully there yet either, but any best practices that might have been implemented in the military's response to this epidemic of sexual assault that may have application into what is being done on campuses?</t>
   </si>
   <si>
@@ -271,6 +328,12 @@
     <t>412613</t>
   </si>
   <si>
+    <t>DeSaulnier</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Madam Chair. And I do want to say, consistent with some of my colleagues, first of all, thank you for having the hearing. I think the hearing helps to draw attention to what is, I feel, is of real urgency, and I think everyone else does. I hear a great commonality, in terms of our desire to take effective action, and we are struggling what that is.    And also, as a parent who has dropped two kids off at college, the rite of passage that all of us have shared and the conveyance of that trust that we put in the institutions that we leave them at, and the expectation that these wonderful institutions will not just education them well but provide a culture where they feel safe and that they aren't put in the situation of either being a victim or a bystander.    So my analogy--and I appreciate the last two comments about the analogy to the military--a lot of this conversation reminds me of the early 1990s when I was in local government and the Clinton administration was bringing up domestic violence. And a lot of the conversations we have had remind me very specifically of the challenges. And even though everybody wanted to stop it, we have got to be careful of our approaches because we are all subject to subjective opinions about the relationships between men and women.    So, to Ms. Maatz, or maybe Dr. Rue or anyone else, CDC, when they look at the history of, for instance, domestic violence--and no analogy is perfect; I understand they are--but we know a lot now from the 20 years since 1994, when the Federal Government took a leadership role and passed the Violence Against Women Act that was just recently reauthorized. So not dissimilar, certainly.    And I remember talking to mandated reporters then, particularly educators in high school, who struggled with many of the same issues that you do, although because they were in the community I think they didn't have some of the--maybe the cultural or professional insular--not insular; that is a poor choice of words. Maybe you understand what I am getting at--the uniqueness of academia at a college campus.</t>
   </si>
   <si>
@@ -289,6 +352,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    My first question is, is there any data out there that we can access that would deal with a victim that has initially chosen not to report to law enforcement who later regrets that and decides they want to report it to law enforcement and they want the individual prosecuted? Is there any data on that?</t>
   </si>
   <si>
@@ -331,6 +400,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Well, thank you, Madam Chair.    I thank the distinguished ranking member, as well, for his leadership, and all of the witnesses for your presence here today on such an important topic.    I want to start my questioning with Mr. Cohn.    So it is my understanding you advocate for weakening the Title IX process in the context of investigating campus sexual assault. Is that accurate?</t>
   </si>
   <si>
@@ -385,6 +460,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Madam Chair.    And thank you all for coming and sharing a--back when it--course, my kids say I am old-fashioned--back in my day we didn't talk about things like this, other than--I will tell you this: Growing up, if I ever did anything to harm another--a woman, I had to answer to my father. And it was--even my little sister. She could hit me and I couldn't hit her back, and that is the way I was taught.    I have three grown daughters, and, course, full disclosure, my--I have a son and he attended Wake Forest University, and we were on the parents' council there. And I will tell you this: They showed a film there to the parents' council that they show every freshman at Wake Forest College about the problems with alcohol.    That was the scariest thing I have ever seen in my life. And I tell you, any freshman that saw that obviously was prepared to know the consequences at least of misbehavior.    Having three grown daughters, you know, I understand--I mean, you--when your kids go off to college, I mean, you just pray they will live through the experience, you know, because it is just--you know, I mean, they are free to do things that--and it--course, I went to college so I remember things I did I shouldn't have done.    But anyway, let me just say this, that would it be appropriate--like I said, I knew the consequences of my actions. Could colleges and universities--and I know it is very difficult to get in Wake Forest, for example. I mean, it is--my son thought it was a great honor to attend that university.    But, I mean, can you read the riot act to these young men and just say, ``You know, these are things that if you do you won't be here next semester''?    Dr. Rue, would you--I mean, is that--I mean, looks like to me that this is a--the universities should set the pace on this and say, ``There are just some things we are not going to put up with here--put up here--put up with here at Wake Forest.'' Can you comment on that?</t>
   </si>
   <si>
@@ -430,6 +511,12 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you.    Mr. Cohn, is the problem that you have with the campus judicial processes, is it the standard or is it what you consider to be a flawed implementation of the standards they use, or both?</t>
   </si>
   <si>
@@ -502,6 +589,12 @@
     <t>412540</t>
   </si>
   <si>
+    <t>Messer</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Madam Chair. Thank you for holding this very important hearing.    Thank you, to the witnesses, for being here as well.    I am the father of a 12 and 11-year-old daughters and an 8-year-old son, and so they are not quite to college yet, but certainly an issue that means a lot to me. And we have several different college campuses on my--in my district, as well.    You know, to reiterate what many of my colleagues have said, when parents send their children off to college they deserve to know that they should be safe. And frankly, if even one student doesn't feel that way or isn't that way, that is one too many.    I wanted to give Mr. Cohn just a quick chance to respond to the comments. Just let me ask this question this way, and what can--so, given your testimony, what can colleges and universities do to improve their disciplinary processes in an effort to be more fair?</t>
   </si>
   <si>
@@ -523,6 +616,9 @@
     <t xml:space="preserve">    Mr. Messer. Thank you for your testimony.    Chairwoman Foxx. Thank you. Gentleman's time has expired.    Ms. Bonamici, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chair Foxx and Ranking Member Hinojosa. Thank you for having me join your subcommittee today.    This is a topic that has been of import in my state of Oregon as well as across the country. We have had a lot of conversations about it. And in fact, just last week I had a great discussion hosted by Portland State University with our Oregon institutions, primarily the Title IX coordinators.    There are a lot of common themes that we heard today not only emphasizing the importance of the issue but the regulatory overlap and sometimes conflict--I think you will find a lot of support among this committee for clarifying that; but also the resources needed to address these issues.    And I am glad we have had a lot of conversations this morning about prevention and the importance of educating students about healthy relationships, consent and what that means, healthy sexual encounters. And I am glad we are talking about that before college--before they get to college.    Now, there were some conversations about the Teach Safe Relationships Act. There is a House version, which I am proud to cosponsor, along with a couple of other members of this committee. I do invite the other committee members and other colleagues to take a look at that and join on because if we are preventing, that is the best approach.    So we know we can take stronger steps not only in prevention, we want to make sure that survivors of sexual assault have access to resources, services, and privacy on and off campus. And I want to emphasize that we really need to have policies that encourage not discourage survivors from reporting and seeking counseling and assistance.    Dr. Rue, you discuss the important role of confidential advisors, and that is something that we are seeing in more institutions.    Now, earlier this year I wrote a letter to the Department of Education about an apparent loophole in FERPA. In some circumstances, attorneys for an institution can access students' counseling records without a court order.    The Department of Education's recent draft guidance to address this issue is encouraging, and I look forward to working with the administration and advocates and colleagues to close that loophole and provide survivors with the support and assurance of privacy. We want them to be safe and we want them to feel safe, and if they have a sense that their records are not going to be kept confidential, that may discourage them from seeking the support that they need.    So my home state is working on this issue. Earlier this year our governor, Kate Brown, signed legislation making clear that conversations between alleged campus assault survivors and their advocates are confidential.    Oregon also passed a bill that requires schools to give students who report sexual assaults written notification about their rights, legal options, campus services, and the state and community resources. And I just want to give a shout-out to Brenda Tracy, a brave survivor of a gang rape on a campus several years ago, who is now a nurse and an advocate.    So these policies are important for students not only in Oregon but, you know, across the country, and I am really glad we are having these conversations today.    And I want to ask you, Ms. Maatz, we know that more institutions are starting to educate students about their rights under Title IX. Oregon State University, for example, is going to be opening a survivor advocacy center to provide confidential and accessible services; they are going to have a full-time advocate there.    So what can we do to expand services like that so more students know their rights? And what is the best way to let survivors know what resources are available to them on and off campus, and also let all students know that, not just survivors? They need to know what is there, and the best way to do that.</t>
   </si>
   <si>
@@ -542,6 +638,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hinojosa. I ask unanimous consent that she be allowed and permitted to join the committee members for today and participate in this important hearing.    Chairwoman Foxx. Without objection, Congresswoman Speier is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Speier</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Speier. Thank you very much for allowing me to participate today. I apologize for not being here for the entire hearing--excuse me. I had a funeral to attend.    But I want to applaud the committee for recognizing the gravity of this issue and the importance of putting a spotlight on the issue and coming up with some solutions to dealing with it. I am sure you have undertaken a complete review with the panelists that are with us today, who are--many of whom are experts, about the fact that this is, indeed, a very serious problem. Regardless of how you crunch the numbers, the incidence is widespread on college campuses and we need to take steps to address it.    Let me say at the outset that I have worked on this issue now for over 2 years. I have worked very closely with my colleague on the other side of the aisle, Pat Meehan, and we have introduced the HALT Act.    But in doing all of this we have spent time with the Office of Civil Rights, and I want to commend them. The OCR within the Department of Education in the last couple of years has done an outstanding job of creating greater accountability, frankly, because we have seen for a very long period of time that the Title IX coordinators on most college campuses weren't even available to people. They were oftentimes buried in Web sites.    That all is changing now due in large part to dear colleagues letters that have been sent out by OCR and others.    It is personal to me because I have a daughter who is in college, and every college that we visited before she chose the college that she is now at, the first question that was asked by every parent--the first question when we were at orientations was what was the safety of that college for their child.    And this is a bipartisan issue, Madam Chair. I can't tell you the number of Republican fathers and Republican mothers who have said to me, ``I am really upset that this issue hasn't been dealt with appropriately.'' And frankly, sometimes it is not until you are six degrees of separation that you appreciate how close it can come to you.    So climate surveys, which we have used very effectively in dealing with sexual assault in the military and has been used in the military for a long period of time, is something that we want to see incorporated by universities. It is a picture that helps them appreciate how significant the issue is.    The HALT Act will also provide for a number of other elements. You know, one of the things that Title IX does, it has a--it is a heavy hammer. If you aren't providing the kind of nondiscrimination in education you can lose all your federal funding, which means you lose all the grant money, you lose the option for student loans. And so it is a heavy hammer.    But it is, I think, important to create a system that provides some fiscal penalties short of that heavy hammer, and the HALT Act would do that.    It would also increase the violations--the penalties for violations to the Clery Act from $35,000 to $100,000 and create a private right of action under Clery for students whose institutions failed to inform them of safety risks and of their rights.    It provides more money for investigators in the Office of Civil Rights by about 5 million and--as an effort to decrease the backlog that exists right now with the Title IX complaints that have been filed.    Now, I spoke to a number of young women who had been assaulted at the University of California. I won't name the campus so they won't be drawn that closely under the microscope.    But in talking to these young women--and there is nothing like hearing the stories of these youngsters to appreciate how insidious this can be. And in many of those cases, the victims were never even interviewed.    That may be shocking to some of you, but that was commonplace. And how can you properly evaluate a case unless you interview both the perpetrator, or alleged perpetrator, and the victim as well?    The question as to whether or not colleges should be engaged in this at all--and, Ms. Scaduto, you had referenced that a few moments ago--you know, is probably a legitimate question. You all have codes of conduct, though, and under that code of conduct, if you violate that code of conduct you take actions to remove those individuals from the campus.    So you certainly have the wherewithal, and you certainly use that code of conduct in dismissing or suspending students who don't comply with the rules of the university. And I would suggest by being engaged in something that is clearly a crime, which rape is, that meets the standard of suspending or terminating a student. But I also appreciate that you, you know, have to weigh the various interests.    I do think that the Office of Civil Rights needs more resources. I do think that we should create a proactive responsibility that institutions, you know, plaster the notices of how you can seek Title IX coordinators in the bathrooms of every dorm and sorority and fraternity, and those simple things. The HALT Act goes beyond that.    And I see my time is expired, and I thank, again, the chair for the opportunity to participate.    Chairwoman Foxx. Thank you very much.    I want to thank our witnesses again for taking time to be here today.    I would like to recognize the ranking member for any closing comments.</t>
@@ -899,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,7 +1006,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,3749 +1028,4362 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G73" t="s">
+        <v>112</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G75" t="s">
+        <v>112</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G86" t="s">
+        <v>128</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
       <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
       <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G98" t="s">
+        <v>128</v>
+      </c>
       <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>104</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>128</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G103" t="s">
+        <v>148</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G106" t="s">
+        <v>148</v>
+      </c>
       <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G108" t="s">
+        <v>148</v>
+      </c>
       <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
       <c r="H110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
       <c r="H112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G114" t="s">
+        <v>148</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G117" t="s">
+        <v>165</v>
+      </c>
       <c r="H117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>137</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G119" t="s">
+        <v>165</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G121" t="s">
+        <v>165</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G123" t="s">
+        <v>165</v>
+      </c>
       <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G124" t="s">
+        <v>165</v>
+      </c>
       <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>137</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G126" t="s">
+        <v>165</v>
+      </c>
       <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>137</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G128" t="s">
+        <v>165</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>137</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G130" t="s">
+        <v>165</v>
+      </c>
       <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>137</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G132" t="s">
+        <v>165</v>
+      </c>
       <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>137</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G134" t="s">
+        <v>165</v>
+      </c>
       <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>137</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>165</v>
+      </c>
       <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>137</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G138" t="s">
+        <v>165</v>
+      </c>
       <c r="H138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>137</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G140" t="s">
+        <v>165</v>
+      </c>
       <c r="H140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G141" t="s">
+        <v>191</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G143" t="s">
+        <v>191</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G145" t="s">
+        <v>191</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G147" t="s">
+        <v>191</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>200</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>200</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>200</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>200</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>208</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96035.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Hinojosa</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>412310</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Roe</t>
@@ -998,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,4359 +1040,4660 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I75" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G86" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G98" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G103" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I105" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G114" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G117" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H117" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G119" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I119" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G121" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I121" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G123" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H123" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G124" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H124" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I124" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>25</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G126" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H126" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G128" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G130" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>23</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G132" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G134" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I134" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>23</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G138" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>21</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>23</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G140" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G141" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="H141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I141" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>25</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G143" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="H143" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I143" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G145" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="H145" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G147" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="H147" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I147" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>200</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>203</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>200</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>21</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>200</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>203</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>200</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>203</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>208</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>211</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>211</v>
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
